--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fbn1-Itgb1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fbn1-Itgb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.9034369512997</v>
+        <v>11.98327633333333</v>
       </c>
       <c r="H2">
-        <v>10.9034369512997</v>
+        <v>35.949829</v>
       </c>
       <c r="I2">
-        <v>0.03070592740367616</v>
+        <v>0.03345300399843466</v>
       </c>
       <c r="J2">
-        <v>0.03070592740367616</v>
+        <v>0.03345300399843466</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N2">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O2">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P2">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q2">
-        <v>1544.687289039465</v>
+        <v>1839.780639890456</v>
       </c>
       <c r="R2">
-        <v>1544.687289039465</v>
+        <v>16558.02575901411</v>
       </c>
       <c r="S2">
-        <v>0.009622767525789585</v>
+        <v>0.01061198524117472</v>
       </c>
       <c r="T2">
-        <v>0.009622767525789585</v>
+        <v>0.01061198524117472</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.9034369512997</v>
+        <v>11.98327633333333</v>
       </c>
       <c r="H3">
-        <v>10.9034369512997</v>
+        <v>35.949829</v>
       </c>
       <c r="I3">
-        <v>0.03070592740367616</v>
+        <v>0.03345300399843466</v>
       </c>
       <c r="J3">
-        <v>0.03070592740367616</v>
+        <v>0.03345300399843466</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N3">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q3">
-        <v>1838.516950400211</v>
+        <v>2022.773482039171</v>
       </c>
       <c r="R3">
-        <v>1838.516950400211</v>
+        <v>18204.96133835254</v>
       </c>
       <c r="S3">
-        <v>0.01145320566269827</v>
+        <v>0.01166750093582753</v>
       </c>
       <c r="T3">
-        <v>0.01145320566269827</v>
+        <v>0.01166750093582753</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.9034369512997</v>
+        <v>11.98327633333333</v>
       </c>
       <c r="H4">
-        <v>10.9034369512997</v>
+        <v>35.949829</v>
       </c>
       <c r="I4">
-        <v>0.03070592740367616</v>
+        <v>0.03345300399843466</v>
       </c>
       <c r="J4">
-        <v>0.03070592740367616</v>
+        <v>0.03345300399843466</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N4">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q4">
-        <v>671.5818681179782</v>
+        <v>815.9451601293478</v>
       </c>
       <c r="R4">
-        <v>671.5818681179782</v>
+        <v>7343.506441164131</v>
       </c>
       <c r="S4">
-        <v>0.0041836792710668</v>
+        <v>0.004706429565111709</v>
       </c>
       <c r="T4">
-        <v>0.0041836792710668</v>
+        <v>0.00470642956511171</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.9034369512997</v>
+        <v>11.98327633333333</v>
       </c>
       <c r="H5">
-        <v>10.9034369512997</v>
+        <v>35.949829</v>
       </c>
       <c r="I5">
-        <v>0.03070592740367616</v>
+        <v>0.03345300399843466</v>
       </c>
       <c r="J5">
-        <v>0.03070592740367616</v>
+        <v>0.03345300399843466</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N5">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q5">
-        <v>874.2590586597706</v>
+        <v>1121.187365044306</v>
       </c>
       <c r="R5">
-        <v>874.2590586597706</v>
+        <v>10090.68628539875</v>
       </c>
       <c r="S5">
-        <v>0.005446274944121504</v>
+        <v>0.006467088256320696</v>
       </c>
       <c r="T5">
-        <v>0.005446274944121504</v>
+        <v>0.006467088256320696</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>330.670138059846</v>
+        <v>332.3726806666667</v>
       </c>
       <c r="H6">
-        <v>330.670138059846</v>
+        <v>997.1180420000001</v>
       </c>
       <c r="I6">
-        <v>0.9312231821195512</v>
+        <v>0.9278651602470024</v>
       </c>
       <c r="J6">
-        <v>0.9312231821195512</v>
+        <v>0.9278651602470025</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N6">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O6">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P6">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q6">
-        <v>46845.95888501778</v>
+        <v>51028.85105119913</v>
       </c>
       <c r="R6">
-        <v>46845.95888501778</v>
+        <v>459259.6594607922</v>
       </c>
       <c r="S6">
-        <v>0.2918310878012966</v>
+        <v>0.2943380327459425</v>
       </c>
       <c r="T6">
-        <v>0.2918310878012966</v>
+        <v>0.2943380327459426</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>330.670138059846</v>
+        <v>332.3726806666667</v>
       </c>
       <c r="H7">
-        <v>330.670138059846</v>
+        <v>997.1180420000001</v>
       </c>
       <c r="I7">
-        <v>0.9312231821195512</v>
+        <v>0.9278651602470024</v>
       </c>
       <c r="J7">
-        <v>0.9312231821195512</v>
+        <v>0.9278651602470025</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N7">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q7">
-        <v>55756.97429439782</v>
+        <v>56104.40967105629</v>
       </c>
       <c r="R7">
-        <v>55756.97429439782</v>
+        <v>504939.6870395066</v>
       </c>
       <c r="S7">
-        <v>0.3473430547292526</v>
+        <v>0.3236142149150561</v>
       </c>
       <c r="T7">
-        <v>0.3473430547292526</v>
+        <v>0.3236142149150561</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>330.670138059846</v>
+        <v>332.3726806666667</v>
       </c>
       <c r="H8">
-        <v>330.670138059846</v>
+        <v>997.1180420000001</v>
       </c>
       <c r="I8">
-        <v>0.9312231821195512</v>
+        <v>0.9278651602470024</v>
       </c>
       <c r="J8">
-        <v>0.9312231821195512</v>
+        <v>0.9278651602470025</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N8">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q8">
-        <v>20367.16221141536</v>
+        <v>22631.36329376008</v>
       </c>
       <c r="R8">
-        <v>20367.16221141536</v>
+        <v>203682.2696438408</v>
       </c>
       <c r="S8">
-        <v>0.1268790573413524</v>
+        <v>0.1305393089011661</v>
       </c>
       <c r="T8">
-        <v>0.1268790573413524</v>
+        <v>0.1305393089011661</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>330.670138059846</v>
+        <v>332.3726806666667</v>
       </c>
       <c r="H9">
-        <v>330.670138059846</v>
+        <v>997.1180420000001</v>
       </c>
       <c r="I9">
-        <v>0.9312231821195512</v>
+        <v>0.9278651602470024</v>
       </c>
       <c r="J9">
-        <v>0.9312231821195512</v>
+        <v>0.9278651602470025</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N9">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q9">
-        <v>26513.78321517578</v>
+        <v>31097.67643534876</v>
       </c>
       <c r="R9">
-        <v>26513.78321517578</v>
+        <v>279879.0879181388</v>
       </c>
       <c r="S9">
-        <v>0.1651699822476496</v>
+        <v>0.1793736036848377</v>
       </c>
       <c r="T9">
-        <v>0.1651699822476496</v>
+        <v>0.1793736036848377</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.0665280973946708</v>
+        <v>0.08615933333333332</v>
       </c>
       <c r="H10">
-        <v>0.0665280973946708</v>
+        <v>0.258478</v>
       </c>
       <c r="I10">
-        <v>0.000187354403756327</v>
+        <v>0.0002405259164795302</v>
       </c>
       <c r="J10">
-        <v>0.000187354403756327</v>
+        <v>0.0002405259164795302</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N10">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O10">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P10">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q10">
-        <v>9.425019548288201</v>
+        <v>13.22795778076178</v>
       </c>
       <c r="R10">
-        <v>9.425019548288201</v>
+        <v>119.051620026856</v>
       </c>
       <c r="S10">
-        <v>5.871400165116691E-05</v>
+        <v>7.629979884378195E-05</v>
       </c>
       <c r="T10">
-        <v>5.871400165116691E-05</v>
+        <v>7.629979884378196E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.0665280973946708</v>
+        <v>0.08615933333333332</v>
       </c>
       <c r="H11">
-        <v>0.0665280973946708</v>
+        <v>0.258478</v>
       </c>
       <c r="I11">
-        <v>0.000187354403756327</v>
+        <v>0.0002405259164795302</v>
       </c>
       <c r="J11">
-        <v>0.000187354403756327</v>
+        <v>0.0002405259164795302</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N11">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q11">
-        <v>11.21784216153958</v>
+        <v>14.54366984862489</v>
       </c>
       <c r="R11">
-        <v>11.21784216153958</v>
+        <v>130.893028637624</v>
       </c>
       <c r="S11">
-        <v>6.988255035659735E-05</v>
+        <v>8.388891938514723E-05</v>
       </c>
       <c r="T11">
-        <v>6.988255035659735E-05</v>
+        <v>8.388891938514724E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.0665280973946708</v>
+        <v>0.08615933333333332</v>
       </c>
       <c r="H12">
-        <v>0.0665280973946708</v>
+        <v>0.258478</v>
       </c>
       <c r="I12">
-        <v>0.000187354403756327</v>
+        <v>0.0002405259164795302</v>
       </c>
       <c r="J12">
-        <v>0.000187354403756327</v>
+        <v>0.0002405259164795302</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N12">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q12">
-        <v>4.097704616462429</v>
+        <v>5.86661686485111</v>
       </c>
       <c r="R12">
-        <v>4.097704616462429</v>
+        <v>52.79955178366</v>
       </c>
       <c r="S12">
-        <v>2.552701714668236E-05</v>
+        <v>3.383906224229729E-05</v>
       </c>
       <c r="T12">
-        <v>2.552701714668236E-05</v>
+        <v>3.383906224229729E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.0665280973946708</v>
+        <v>0.08615933333333332</v>
       </c>
       <c r="H13">
-        <v>0.0665280973946708</v>
+        <v>0.258478</v>
       </c>
       <c r="I13">
-        <v>0.000187354403756327</v>
+        <v>0.0002405259164795302</v>
       </c>
       <c r="J13">
-        <v>0.000187354403756327</v>
+        <v>0.0002405259164795302</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N13">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q13">
-        <v>5.334353934679045</v>
+        <v>8.061297530564666</v>
       </c>
       <c r="R13">
-        <v>5.334353934679045</v>
+        <v>72.551677775082</v>
       </c>
       <c r="S13">
-        <v>3.323083460188033E-05</v>
+        <v>4.649813600830369E-05</v>
       </c>
       <c r="T13">
-        <v>3.323083460188033E-05</v>
+        <v>4.64981360083037E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.4521501869691</v>
+        <v>13.77014866666667</v>
       </c>
       <c r="H14">
-        <v>13.4521501869691</v>
+        <v>41.310446</v>
       </c>
       <c r="I14">
-        <v>0.03788353607301637</v>
+        <v>0.03844130983808348</v>
       </c>
       <c r="J14">
-        <v>0.03788353607301637</v>
+        <v>0.03844130983808348</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N14">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O14">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P14">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q14">
-        <v>1905.762879803154</v>
+        <v>2114.117393327243</v>
       </c>
       <c r="R14">
-        <v>1905.762879803154</v>
+        <v>19027.05653994519</v>
       </c>
       <c r="S14">
-        <v>0.01187212019011862</v>
+        <v>0.01219437909588791</v>
       </c>
       <c r="T14">
-        <v>0.01187212019011862</v>
+        <v>0.01219437909588792</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.4521501869691</v>
+        <v>13.77014866666667</v>
       </c>
       <c r="H15">
-        <v>13.4521501869691</v>
+        <v>41.310446</v>
       </c>
       <c r="I15">
-        <v>0.03788353607301637</v>
+        <v>0.03844130983808348</v>
       </c>
       <c r="J15">
-        <v>0.03788353607301637</v>
+        <v>0.03844130983808348</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N15">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q15">
-        <v>2268.276163611326</v>
+        <v>2324.39700060913</v>
       </c>
       <c r="R15">
-        <v>2268.276163611326</v>
+        <v>20919.57300548217</v>
       </c>
       <c r="S15">
-        <v>0.0141304290917642</v>
+        <v>0.01340728678749634</v>
       </c>
       <c r="T15">
-        <v>0.0141304290917642</v>
+        <v>0.01340728678749634</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.4521501869691</v>
+        <v>13.77014866666667</v>
       </c>
       <c r="H16">
-        <v>13.4521501869691</v>
+        <v>41.310446</v>
       </c>
       <c r="I16">
-        <v>0.03788353607301637</v>
+        <v>0.03844130983808348</v>
       </c>
       <c r="J16">
-        <v>0.03788353607301637</v>
+        <v>0.03844130983808348</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N16">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q16">
-        <v>828.5662762227857</v>
+        <v>937.6138750614022</v>
       </c>
       <c r="R16">
-        <v>828.5662762227857</v>
+        <v>8438.524875552621</v>
       </c>
       <c r="S16">
-        <v>0.005161627672070084</v>
+        <v>0.005408223343770306</v>
       </c>
       <c r="T16">
-        <v>0.005161627672070084</v>
+        <v>0.005408223343770308</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.4521501869691</v>
+        <v>13.77014866666667</v>
       </c>
       <c r="H17">
-        <v>13.4521501869691</v>
+        <v>41.310446</v>
       </c>
       <c r="I17">
-        <v>0.03788353607301637</v>
+        <v>0.03844130983808348</v>
       </c>
       <c r="J17">
-        <v>0.03788353607301637</v>
+        <v>0.03844130983808348</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N17">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q17">
-        <v>1078.619907827099</v>
+        <v>1288.371916860719</v>
       </c>
       <c r="R17">
-        <v>1078.619907827099</v>
+        <v>11595.34725174647</v>
       </c>
       <c r="S17">
-        <v>0.006719359119063468</v>
+        <v>0.007431420610928921</v>
       </c>
       <c r="T17">
-        <v>0.006719359119063468</v>
+        <v>0.007431420610928922</v>
       </c>
     </row>
   </sheetData>
